--- a/BOILERS/rkurs/november.xlsx
+++ b/BOILERS/rkurs/november.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kocha\source\repos\itmo-viud\BOILERS\rkurs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E626ED-2A97-4029-B23F-0264F69292EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC9F5B-7BE3-45D4-B94F-C780C21D96D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+      <selection activeCell="J2" sqref="J2:J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
